--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEF35D5-5A79-A64D-8924-845E8DE2347F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB2357-7166-ED4E-818B-D41ABBDE76EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-23700" windowWidth="26440" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clave_numero_fecha" sheetId="1" r:id="rId1"/>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,6 +2406,94 @@
         <v>44169</v>
       </c>
     </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>266</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>267</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>268</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>269</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>270</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>271</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>272</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>273</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>274</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>275</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>276</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB2357-7166-ED4E-818B-D41ABBDE76EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22061BA9-4183-7A40-A4BE-101E4F886534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clave_numero_fecha" sheetId="1" r:id="rId1"/>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2494,6 +2494,54 @@
         <v>44187</v>
       </c>
     </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>277</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>278</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>279</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>280</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>281</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>282</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22061BA9-4183-7A40-A4BE-101E4F886534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7CBCE-87F0-C44F-B5D0-736A67C6DD60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,6 +2542,30 @@
         <v>44196</v>
       </c>
     </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>283</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>284</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>285</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7CBCE-87F0-C44F-B5D0-736A67C6DD60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7D7B6-64DC-0C4E-A67F-C9C0C96328EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2566,6 +2566,150 @@
         <v>44203</v>
       </c>
     </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>286</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>287</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>288</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>289</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>290</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>291</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>292</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>293</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>294</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>295</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>296</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>297</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>298</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>299</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>300</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>301</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>302</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>303</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5F66C-DA0D-2F4A-ABFB-E11E4E705BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F6B4D-D164-B949-ADB2-213AB870111B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2742,6 +2742,22 @@
         <v>44235</v>
       </c>
     </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>308</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>309</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0F6B4D-D164-B949-ADB2-213AB870111B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C799EBDC-974B-A544-8AD0-351E567B164D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2758,6 +2758,14 @@
         <v>44237</v>
       </c>
     </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>310</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C799EBDC-974B-A544-8AD0-351E567B164D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4872B-3BDF-CD44-A7CA-062D1EB1A74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2766,6 +2766,30 @@
         <v>44238</v>
       </c>
     </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>311</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>312</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>313</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
+++ b/scrap_sanidad/datos_sanidad/clave_numero_fecha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mharias/Documents/proyectos/covid/scrap_sanidad/datos_sanidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4872B-3BDF-CD44-A7CA-062D1EB1A74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B683F-D972-7142-93E8-DC98720680BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2790,6 +2790,14 @@
         <v>44243</v>
       </c>
     </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>314</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
